--- a/karate-terminology.xlsx
+++ b/karate-terminology.xlsx
@@ -1,370 +1,362 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/karate-terminology/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E96CB0-5AC3-A344-8CC8-B6798389D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="403">
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>japanese</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t xml:space="preserve">japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
   </si>
   <si>
     <t xml:space="preserve">Age zuki </t>
   </si>
   <si>
-    <t>Uppercut</t>
+    <t xml:space="preserve">Uppercut</t>
   </si>
   <si>
     <t xml:space="preserve">Aite wo oshite </t>
   </si>
   <si>
-    <t>Push the oponent</t>
+    <t xml:space="preserve">Push the oponent</t>
   </si>
   <si>
     <t xml:space="preserve">Aiuchi </t>
   </si>
   <si>
-    <t>Simultaneous techniques</t>
+    <t xml:space="preserve">Simultaneous techniques</t>
   </si>
   <si>
     <t xml:space="preserve">Aka </t>
   </si>
   <si>
-    <t>Red</t>
+    <t xml:space="preserve">Red</t>
   </si>
   <si>
     <t xml:space="preserve">Akushu </t>
   </si>
   <si>
-    <t>Shake hands</t>
+    <t xml:space="preserve">Shake hands</t>
   </si>
   <si>
     <t xml:space="preserve">Ao </t>
   </si>
   <si>
-    <t>Blue</t>
+    <t xml:space="preserve">Blue</t>
   </si>
   <si>
     <t xml:space="preserve">Ashi barai </t>
   </si>
   <si>
-    <t>Foot sweep</t>
+    <t xml:space="preserve">Foot sweep</t>
   </si>
   <si>
     <t xml:space="preserve">Ashi-kubi </t>
   </si>
   <si>
-    <t>Ankle</t>
+    <t xml:space="preserve">Ankle</t>
   </si>
   <si>
     <t xml:space="preserve">Ashi no katachi </t>
   </si>
   <si>
-    <t>Footshapes</t>
+    <t xml:space="preserve">Footshapes</t>
   </si>
   <si>
     <t xml:space="preserve">Atoshi-uke </t>
   </si>
   <si>
-    <t>Downward block</t>
+    <t xml:space="preserve">Downward block</t>
   </si>
   <si>
     <t xml:space="preserve">Chaku-gan </t>
   </si>
   <si>
-    <t>Fighting focus/correct use of power</t>
+    <t xml:space="preserve">Fighting focus/correct use of power</t>
   </si>
   <si>
     <t xml:space="preserve">Chikara </t>
   </si>
   <si>
-    <t>Strength</t>
+    <t xml:space="preserve">Strength</t>
   </si>
   <si>
     <t xml:space="preserve">Chudan </t>
   </si>
   <si>
-    <t>Middle body</t>
+    <t xml:space="preserve">Middle body</t>
   </si>
   <si>
     <t xml:space="preserve">Chusoku </t>
   </si>
   <si>
-    <t>Ball of foot</t>
+    <t xml:space="preserve">Ball of foot</t>
   </si>
   <si>
     <t xml:space="preserve">Dan </t>
   </si>
   <si>
-    <t>Rank/level</t>
+    <t xml:space="preserve">Rank/level</t>
   </si>
   <si>
     <t xml:space="preserve">Do </t>
   </si>
   <si>
-    <t>Way</t>
+    <t xml:space="preserve">Way</t>
   </si>
   <si>
     <t xml:space="preserve">Dojo </t>
   </si>
   <si>
-    <t>Place for studying (usually the training hall)</t>
+    <t xml:space="preserve">Place for studying (usually the training hall)</t>
   </si>
   <si>
     <t xml:space="preserve">Dozo </t>
   </si>
   <si>
-    <t>Please (to a student)</t>
+    <t xml:space="preserve">Please (to a student)</t>
   </si>
   <si>
     <t xml:space="preserve">Enpi </t>
   </si>
   <si>
-    <t>Elbow</t>
+    <t xml:space="preserve">Elbow</t>
   </si>
   <si>
     <t xml:space="preserve">Enpi uchi </t>
   </si>
   <si>
-    <t>Elbow strike</t>
+    <t xml:space="preserve">Elbow strike</t>
   </si>
   <si>
     <t xml:space="preserve">Enpi uke </t>
   </si>
   <si>
-    <t>Elbow block</t>
+    <t xml:space="preserve">Elbow block</t>
   </si>
   <si>
     <t xml:space="preserve">Fumikomi </t>
   </si>
   <si>
-    <t>Stamping</t>
+    <t xml:space="preserve">Stamping</t>
   </si>
   <si>
     <t xml:space="preserve">Ganmen </t>
   </si>
   <si>
-    <t>Face</t>
+    <t xml:space="preserve">Face</t>
   </si>
   <si>
     <t xml:space="preserve">Gedan </t>
   </si>
   <si>
-    <t>Lower body</t>
+    <t xml:space="preserve">Lower body</t>
   </si>
   <si>
     <t xml:space="preserve">Gedan barai </t>
   </si>
   <si>
-    <t>Lower level sweep</t>
-  </si>
-  <si>
-    <t>Geri/</t>
-  </si>
-  <si>
-    <t>Kick</t>
+    <t xml:space="preserve">Lower level sweep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geri/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kick</t>
   </si>
   <si>
     <t xml:space="preserve">Gi </t>
   </si>
   <si>
-    <t>Uniform</t>
+    <t xml:space="preserve">Uniform</t>
   </si>
   <si>
     <t xml:space="preserve">Gohonme </t>
   </si>
   <si>
-    <t>Number five</t>
+    <t xml:space="preserve">Number five</t>
   </si>
   <si>
     <t xml:space="preserve">Gomennasai </t>
   </si>
   <si>
-    <t>Sorry</t>
+    <t xml:space="preserve">Sorry</t>
   </si>
   <si>
     <t xml:space="preserve">Gyaku mawashi geri </t>
   </si>
   <si>
-    <t>Reverse roundhouse/hook kick</t>
+    <t xml:space="preserve">Reverse roundhouse/hook kick</t>
   </si>
   <si>
     <t xml:space="preserve">Gyaku zuki </t>
   </si>
   <si>
-    <t>Reverse or opposite punch</t>
+    <t xml:space="preserve">Reverse or opposite punch</t>
   </si>
   <si>
     <t xml:space="preserve">Gyaku zuki no-tsukomi </t>
   </si>
   <si>
-    <t>Opposite punch leaning forwards</t>
+    <t xml:space="preserve">Opposite punch leaning forwards</t>
   </si>
   <si>
     <t xml:space="preserve">Haishu uke </t>
   </si>
   <si>
-    <t>Back of hand block</t>
+    <t xml:space="preserve">Back of hand block</t>
   </si>
   <si>
     <t xml:space="preserve">Haito </t>
   </si>
   <si>
-    <t>Ridgehand</t>
+    <t xml:space="preserve">Ridgehand</t>
   </si>
   <si>
     <t xml:space="preserve">Haito uchi </t>
   </si>
   <si>
-    <t>Ridgehand strike</t>
+    <t xml:space="preserve">Ridgehand strike</t>
   </si>
   <si>
     <t xml:space="preserve">Hajime </t>
   </si>
   <si>
-    <t>Bean</t>
+    <t xml:space="preserve">Bean</t>
   </si>
   <si>
     <t xml:space="preserve">Hanmi </t>
   </si>
   <si>
-    <t>Half turned/oblique</t>
+    <t xml:space="preserve">Half turned/oblique</t>
   </si>
   <si>
     <t xml:space="preserve">Hantei </t>
   </si>
   <si>
-    <t>Judgement/decision</t>
+    <t xml:space="preserve">Judgement/decision</t>
   </si>
   <si>
     <t xml:space="preserve">Harai uke </t>
   </si>
   <si>
-    <t>Inner knife hand block</t>
+    <t xml:space="preserve">Inner knife hand block</t>
   </si>
   <si>
     <t xml:space="preserve">Hashiri </t>
   </si>
   <si>
-    <t>Running</t>
+    <t xml:space="preserve">Running</t>
   </si>
   <si>
     <t xml:space="preserve">Hayaku </t>
   </si>
   <si>
-    <t>Faster</t>
-  </si>
-  <si>
-    <t>Heisoku instep</t>
+    <t xml:space="preserve">Faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heisoku instep</t>
   </si>
   <si>
     <t xml:space="preserve">Hidari </t>
   </si>
   <si>
-    <t>Left</t>
+    <t xml:space="preserve">Left</t>
   </si>
   <si>
     <t xml:space="preserve">Hidari hanmi kamae </t>
   </si>
   <si>
-    <t>Left free fighting stance</t>
+    <t xml:space="preserve">Left free fighting stance</t>
   </si>
   <si>
     <t xml:space="preserve">Hidari shizentai </t>
   </si>
   <si>
-    <t>Left natural stance</t>
+    <t xml:space="preserve">Left natural stance</t>
   </si>
   <si>
     <t xml:space="preserve">Hijiwo oshite </t>
   </si>
   <si>
-    <t>Push the elbow</t>
+    <t xml:space="preserve">Push the elbow</t>
   </si>
   <si>
     <t xml:space="preserve">Hikite </t>
   </si>
   <si>
-    <t>Pulling hand</t>
+    <t xml:space="preserve">Pulling hand</t>
   </si>
   <si>
     <t xml:space="preserve">Hira bassami </t>
   </si>
   <si>
-    <t>Claw finger hand</t>
+    <t xml:space="preserve">Claw finger hand</t>
   </si>
   <si>
     <t xml:space="preserve">Hiza </t>
   </si>
   <si>
-    <t>Knee</t>
+    <t xml:space="preserve">Knee</t>
   </si>
   <si>
     <t xml:space="preserve">Hiza geri </t>
   </si>
   <si>
-    <t>Knee kick</t>
+    <t xml:space="preserve">Knee kick</t>
   </si>
   <si>
     <t xml:space="preserve">Hiza mawashi geri </t>
   </si>
   <si>
-    <t>Roundhouse kick with the knee</t>
+    <t xml:space="preserve">Roundhouse kick with the knee</t>
   </si>
   <si>
     <t xml:space="preserve">Hira ken </t>
   </si>
   <si>
-    <t>Second knuckles strike</t>
+    <t xml:space="preserve">Second knuckles strike</t>
   </si>
   <si>
     <t xml:space="preserve">Ippon ken </t>
   </si>
   <si>
-    <t>One knuckle fist</t>
-  </si>
-  <si>
-    <t>lpponme Number one</t>
-  </si>
-  <si>
-    <t>Number one</t>
+    <t xml:space="preserve">One knuckle fist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpponme Number one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number one</t>
   </si>
   <si>
     <t xml:space="preserve">Ippon nukite </t>
   </si>
   <si>
-    <t>One finger spear hand</t>
-  </si>
-  <si>
-    <t>odan Upper body</t>
-  </si>
-  <si>
-    <t>Upper body</t>
+    <t xml:space="preserve">One finger spear hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odan Upper body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper body</t>
   </si>
   <si>
     <t xml:space="preserve">Jodan uke </t>
   </si>
   <si>
-    <t>Upper level forearm block</t>
+    <t xml:space="preserve">Upper level forearm block</t>
   </si>
   <si>
     <t xml:space="preserve">Johsokutei </t>
@@ -373,292 +365,295 @@
     <t xml:space="preserve">Johsukutei geri </t>
   </si>
   <si>
-    <t>Ball of foot kick</t>
+    <t xml:space="preserve">Ball of foot kick</t>
   </si>
   <si>
     <t xml:space="preserve">Jun zuki no no-tsukomi </t>
   </si>
   <si>
-    <t>Front punch leaning forwards</t>
+    <t xml:space="preserve">Front punch leaning forwards</t>
   </si>
   <si>
     <t xml:space="preserve">Ju tsu go </t>
   </si>
   <si>
-    <t>Terminology</t>
+    <t xml:space="preserve">Terminology</t>
   </si>
   <si>
     <t xml:space="preserve">Jyubun </t>
   </si>
   <si>
-    <t>Enough</t>
+    <t xml:space="preserve">Enough</t>
   </si>
   <si>
     <t xml:space="preserve">Jyupponme </t>
   </si>
   <si>
-    <t>Number 10</t>
+    <t xml:space="preserve">Number 10</t>
   </si>
   <si>
     <t xml:space="preserve">Jyuji uke </t>
   </si>
   <si>
-    <t>Crossed arm block</t>
+    <t xml:space="preserve">Crossed arm block</t>
   </si>
   <si>
     <t xml:space="preserve">Jun zuki hidari kamae </t>
   </si>
   <si>
-    <t>Left front punch stance</t>
-  </si>
-  <si>
-    <t>Jun z2uki punge or front punch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kagi </t>
-  </si>
-  <si>
-    <t>Hoo punch</t>
+    <t xml:space="preserve">Left front punch stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun zuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunge or front punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagi zuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoo punch</t>
   </si>
   <si>
     <t xml:space="preserve">Kai </t>
   </si>
   <si>
-    <t>Schoo</t>
+    <t xml:space="preserve">Schoo</t>
   </si>
   <si>
     <t xml:space="preserve">Kakato </t>
   </si>
   <si>
-    <t>Heel</t>
+    <t xml:space="preserve">Heel</t>
   </si>
   <si>
     <t xml:space="preserve">Kakato geri </t>
   </si>
   <si>
-    <t>Heel/axe kick</t>
+    <t xml:space="preserve">Heel/axe kick</t>
   </si>
   <si>
     <t xml:space="preserve">Ka kete </t>
   </si>
   <si>
-    <t>Hooking hand</t>
+    <t xml:space="preserve">Hooking hand</t>
   </si>
   <si>
     <t xml:space="preserve">Kakuto uchi </t>
   </si>
   <si>
-    <t>Back of wrist strike</t>
+    <t xml:space="preserve">Back of wrist strike</t>
   </si>
   <si>
     <t xml:space="preserve">Kamaete </t>
   </si>
   <si>
-    <t>Line up position (bring on your warrior mind)</t>
+    <t xml:space="preserve">Line up position (bring on your warrior mind)</t>
   </si>
   <si>
     <t xml:space="preserve">Kani bassami </t>
   </si>
   <si>
-    <t>Scissor sweep</t>
+    <t xml:space="preserve">Scissor sweep</t>
   </si>
   <si>
     <t xml:space="preserve">Karateka </t>
   </si>
   <si>
-    <t>Student of karate</t>
+    <t xml:space="preserve">Student of karate</t>
   </si>
   <si>
     <t xml:space="preserve">Kata </t>
   </si>
   <si>
-    <t>Prearranged sequence of techniques</t>
+    <t xml:space="preserve">Prearranged sequence of techniques</t>
   </si>
   <si>
     <t xml:space="preserve">Kazu </t>
   </si>
   <si>
-    <t>Numbers</t>
+    <t xml:space="preserve">Numbers</t>
   </si>
   <si>
     <t xml:space="preserve">Keiko </t>
   </si>
   <si>
-    <t>Chicken beak</t>
+    <t xml:space="preserve">Chicken beak</t>
   </si>
   <si>
     <t xml:space="preserve">Keikotsu </t>
   </si>
   <si>
-    <t>Chin</t>
+    <t xml:space="preserve">Chin</t>
   </si>
   <si>
     <t xml:space="preserve">Kekomi </t>
   </si>
   <si>
-    <t>Thrusting</t>
+    <t xml:space="preserve">Thrusting</t>
   </si>
   <si>
     <t xml:space="preserve">Keri waza </t>
   </si>
   <si>
-    <t>Kicks</t>
+    <t xml:space="preserve">Kicks</t>
   </si>
   <si>
     <t xml:space="preserve">Keri wo ukete </t>
   </si>
   <si>
-    <t>Catch the kick</t>
+    <t xml:space="preserve">Catch the kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kette gyaku zuki </t>
   </si>
   <si>
-    <t>Opposite punch preceded by (front) kick</t>
+    <t xml:space="preserve">Opposite punch preceded by (front) kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kette gyaku zuki no tsukkomi </t>
   </si>
   <si>
-    <t>Leaning opp. punch preceded by (front,) kick</t>
+    <t xml:space="preserve">Leaning opp. punch preceded by (front,) kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kette jun zuki </t>
   </si>
   <si>
-    <t>Front punch preceded by (front) kick</t>
+    <t xml:space="preserve">Front punch preceded by (front) kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kette jun zuki no tsukkomi </t>
   </si>
   <si>
-    <t>Leaning front punen preceded by (front,) kick</t>
+    <t xml:space="preserve">Leaning front punch preceded by (front,) kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kiai </t>
   </si>
   <si>
-    <t>Spirit shout (battle cry)</t>
+    <t xml:space="preserve">Spirit shout (battle cry)</t>
   </si>
   <si>
     <t xml:space="preserve">Kihon </t>
   </si>
   <si>
-    <t>Basic or standard</t>
+    <t xml:space="preserve">Basic or standard</t>
   </si>
   <si>
     <t xml:space="preserve">Kime </t>
   </si>
   <si>
-    <t>Focus of power</t>
+    <t xml:space="preserve">Focus of power</t>
   </si>
   <si>
     <t xml:space="preserve">Kin geri </t>
   </si>
   <si>
-    <t>Groin kick</t>
+    <t xml:space="preserve">Groin kick</t>
   </si>
   <si>
     <t xml:space="preserve">Kiritsu </t>
   </si>
   <si>
-    <t>Stand up</t>
+    <t xml:space="preserve">Stand up</t>
   </si>
   <si>
     <t xml:space="preserve">Kite </t>
   </si>
   <si>
-    <t>Come</t>
+    <t xml:space="preserve">Come</t>
   </si>
   <si>
     <t xml:space="preserve">Kite mite </t>
   </si>
   <si>
-    <t>Come listen</t>
+    <t xml:space="preserve">Come listen</t>
   </si>
   <si>
     <t xml:space="preserve">Kizami zuki </t>
   </si>
   <si>
-    <t>Short punch</t>
+    <t xml:space="preserve">Short punch</t>
   </si>
   <si>
     <t xml:space="preserve">Koken </t>
   </si>
   <si>
-    <t>Back of wrist</t>
+    <t xml:space="preserve">Back of wrist</t>
   </si>
   <si>
     <t xml:space="preserve">Kokou </t>
   </si>
   <si>
-    <t>Tiger mouth hand</t>
+    <t xml:space="preserve">Tiger mouth hand</t>
   </si>
   <si>
     <t xml:space="preserve">Koko ni suware </t>
   </si>
   <si>
-    <t>Sit here</t>
+    <t xml:space="preserve">Sit here</t>
   </si>
   <si>
     <t xml:space="preserve">Koutai </t>
   </si>
   <si>
-    <t>Step backwards</t>
+    <t xml:space="preserve">Step backwards</t>
   </si>
   <si>
     <t xml:space="preserve">Kumite </t>
   </si>
   <si>
-    <t>Sparring</t>
+    <t xml:space="preserve">Sparring</t>
   </si>
   <si>
     <t xml:space="preserve">Kyu </t>
   </si>
   <si>
-    <t>Level of student before black belt (dan grade)</t>
+    <t xml:space="preserve">Level of student before black belt (dan grade)</t>
   </si>
   <si>
     <t xml:space="preserve">Kyuhonme </t>
   </si>
   <si>
-    <t>Number nine</t>
+    <t xml:space="preserve">Number nine</t>
   </si>
   <si>
     <t xml:space="preserve">Wyukel </t>
   </si>
   <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>aai Correct distance</t>
-  </si>
-  <si>
-    <t>Correct distance</t>
+    <t xml:space="preserve">Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai Correct distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct distance</t>
   </si>
   <si>
     <t xml:space="preserve">Mae </t>
   </si>
   <si>
-    <t>Front</t>
+    <t xml:space="preserve">Front</t>
   </si>
   <si>
     <t xml:space="preserve">Mae geri keage </t>
   </si>
   <si>
-    <t>Snapping front kick</t>
+    <t xml:space="preserve">Snapping front kick</t>
   </si>
   <si>
     <t xml:space="preserve">Mae geri kekomi </t>
   </si>
   <si>
-    <t>Thrusting front kick</t>
+    <t xml:space="preserve">Thrusting front kick</t>
   </si>
   <si>
     <t xml:space="preserve">Mae tobi geri </t>
   </si>
   <si>
-    <t>Jumping or flying front kick</t>
+    <t xml:space="preserve">Jumping or flying front kick</t>
   </si>
   <si>
     <t xml:space="preserve">Maiai </t>
@@ -667,547 +662,544 @@
     <t xml:space="preserve">Matte </t>
   </si>
   <si>
-    <t>Wait</t>
+    <t xml:space="preserve">Wait</t>
   </si>
   <si>
     <t xml:space="preserve">Mawashi geri </t>
   </si>
   <si>
-    <t>Roundhouse kick</t>
+    <t xml:space="preserve">Roundhouse kick</t>
   </si>
   <si>
     <t xml:space="preserve">Mawashi uraken </t>
   </si>
   <si>
-    <t>Turning backfist</t>
+    <t xml:space="preserve">Turning backfist</t>
   </si>
   <si>
     <t xml:space="preserve">Mawashi zuki </t>
   </si>
   <si>
-    <t>Swinging hook punch</t>
+    <t xml:space="preserve">Swinging hook punch</t>
   </si>
   <si>
     <t xml:space="preserve">Mawatte </t>
   </si>
   <si>
-    <t>Turn</t>
+    <t xml:space="preserve">Turn</t>
   </si>
   <si>
     <t xml:space="preserve">Migi </t>
   </si>
   <si>
-    <t>Right</t>
+    <t xml:space="preserve">Right</t>
   </si>
   <si>
     <t xml:space="preserve">Morote bara! </t>
   </si>
   <si>
-    <t>Double hand sweep</t>
+    <t xml:space="preserve">Double hand sweep</t>
   </si>
   <si>
     <t xml:space="preserve">Morote uke </t>
   </si>
   <si>
-    <t>Augmented forearm block</t>
+    <t xml:space="preserve">Augmented forearm biock</t>
   </si>
   <si>
     <t xml:space="preserve">Morote zuki </t>
   </si>
   <si>
-    <t>Bassai dai)</t>
+    <t xml:space="preserve">Bassai dai)</t>
   </si>
   <si>
     <t xml:space="preserve">Mushin </t>
   </si>
   <si>
-    <t>Clear/receptive mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mika zuki geri </t>
-  </si>
-  <si>
-    <t>Inwards crescent kick</t>
+    <t xml:space="preserve">Clear/receptive mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mika zuki geri inwards crescent kick</t>
   </si>
   <si>
     <t xml:space="preserve">Mizu </t>
   </si>
   <si>
-    <t>Water</t>
+    <t xml:space="preserve">Water</t>
   </si>
   <si>
     <t xml:space="preserve">Naore </t>
   </si>
   <si>
-    <t>As you were (at ease position)</t>
+    <t xml:space="preserve">As you were (at ease position)</t>
   </si>
   <si>
     <t xml:space="preserve">Nagashi uke </t>
   </si>
   <si>
-    <t>Flowing block</t>
+    <t xml:space="preserve">Flowing block</t>
   </si>
   <si>
     <t xml:space="preserve">Nagashi zuki </t>
   </si>
   <si>
-    <t>Brushing punch</t>
+    <t xml:space="preserve">Brushing punch</t>
   </si>
   <si>
     <t xml:space="preserve">Nakadaka ippon ken </t>
   </si>
   <si>
-    <t>Middle finger one knuckle fist</t>
+    <t xml:space="preserve">Middle finger one knuckle fist</t>
   </si>
   <si>
     <t xml:space="preserve">Nanahonme </t>
   </si>
   <si>
-    <t>Number eight</t>
+    <t xml:space="preserve">Number eight</t>
   </si>
   <si>
     <t xml:space="preserve">Nidan geri </t>
   </si>
   <si>
-    <t>Double level jumping kick</t>
+    <t xml:space="preserve">Double level jumping kick</t>
   </si>
   <si>
     <t xml:space="preserve">Nihonme </t>
   </si>
   <si>
-    <t>Number two</t>
+    <t xml:space="preserve">Number two</t>
   </si>
   <si>
     <t xml:space="preserve">Nihon nukite </t>
   </si>
   <si>
-    <t>Two finger spear hand</t>
+    <t xml:space="preserve">Two finger spear hand</t>
   </si>
   <si>
     <t xml:space="preserve">Nukite </t>
   </si>
   <si>
-    <t>Spear hand</t>
+    <t xml:space="preserve">Spear hand</t>
   </si>
   <si>
     <t xml:space="preserve">Obi </t>
   </si>
   <si>
-    <t>Belt</t>
+    <t xml:space="preserve">Belt</t>
   </si>
   <si>
     <t xml:space="preserve">Ohyo kumite </t>
   </si>
   <si>
-    <t>Semi-free sparring</t>
+    <t xml:space="preserve">Semi-free sparring</t>
   </si>
   <si>
     <t xml:space="preserve">Onegaishimasu </t>
   </si>
   <si>
-    <t>Polite please/thank you/hello</t>
+    <t xml:space="preserve">Polite please/thank you/hello</t>
   </si>
   <si>
     <t xml:space="preserve">Osuku </t>
   </si>
   <si>
-    <t>Slower</t>
+    <t xml:space="preserve">Slower</t>
   </si>
   <si>
     <t xml:space="preserve">Otagai ni rei </t>
   </si>
   <si>
-    <t>Bow 10 dojo anu ai asserted</t>
+    <t xml:space="preserve">Bow 10 dojo ais ai asserted</t>
   </si>
   <si>
     <t xml:space="preserve">Otoshi barai </t>
   </si>
   <si>
-    <t>Drop sweep/falling sweep</t>
+    <t xml:space="preserve">Drop sweep/falling sweep</t>
   </si>
   <si>
     <t xml:space="preserve">Otoshi uke </t>
   </si>
   <si>
-    <t>Dropping biock</t>
+    <t xml:space="preserve">Dropping block</t>
   </si>
   <si>
     <t xml:space="preserve">Pinan </t>
   </si>
   <si>
-    <t>Peace and tranquility</t>
+    <t xml:space="preserve">Peace and tranquility</t>
   </si>
   <si>
     <t xml:space="preserve">Rei </t>
   </si>
   <si>
-    <t>Bow</t>
+    <t xml:space="preserve">Bow</t>
   </si>
   <si>
     <t xml:space="preserve">Renraku waza </t>
   </si>
   <si>
-    <t>Combination technique</t>
+    <t xml:space="preserve">Combination technique</t>
   </si>
   <si>
     <t xml:space="preserve">Ren zuki </t>
   </si>
   <si>
-    <t>Aiternate punching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, Ropponme </t>
-  </si>
-  <si>
-    <t>Number six</t>
+    <t xml:space="preserve">Alternate punching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ropponme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number six</t>
   </si>
   <si>
     <t xml:space="preserve">Ryu </t>
   </si>
   <si>
-    <t>Style</t>
+    <t xml:space="preserve">Style</t>
   </si>
   <si>
     <t xml:space="preserve">Sagi ashi dachi </t>
   </si>
   <si>
-    <t>Crane stance</t>
+    <t xml:space="preserve">Crane stance</t>
   </si>
   <si>
     <t xml:space="preserve">Samurai </t>
   </si>
   <si>
-    <t>Japan</t>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">Sanbonme </t>
   </si>
   <si>
-    <t>Number three</t>
+    <t xml:space="preserve">Number three</t>
   </si>
   <si>
     <t xml:space="preserve">Sasae uke </t>
   </si>
   <si>
-    <t>Reintorced biock</t>
+    <t xml:space="preserve">Reintorced biock</t>
   </si>
   <si>
     <t xml:space="preserve">Seiken </t>
   </si>
   <si>
-    <t>Fore fist</t>
+    <t xml:space="preserve">Fore fist</t>
   </si>
   <si>
     <t xml:space="preserve">Seiza </t>
   </si>
   <si>
-    <t>Kneeling</t>
+    <t xml:space="preserve">Kneeling</t>
   </si>
   <si>
     <t xml:space="preserve">Senpai </t>
   </si>
   <si>
-    <t>Senior student/ assistant instructor</t>
+    <t xml:space="preserve">Senior student/ assistant instructor</t>
   </si>
   <si>
     <t xml:space="preserve">Sensei </t>
   </si>
   <si>
-    <t>Instructor</t>
+    <t xml:space="preserve">Instructor</t>
   </si>
   <si>
     <t xml:space="preserve">Sensei ni rei </t>
   </si>
   <si>
-    <t>Bow to instructor (instructor reciprocates)</t>
+    <t xml:space="preserve">Bow to instructor (instructor reciprocates)</t>
   </si>
   <si>
     <t xml:space="preserve">Shomen </t>
   </si>
   <si>
-    <t>Forward facing</t>
+    <t xml:space="preserve">Forward facing</t>
   </si>
   <si>
     <t xml:space="preserve">Shuto </t>
   </si>
   <si>
-    <t>Knife hand</t>
+    <t xml:space="preserve">Knife hand</t>
   </si>
   <si>
     <t xml:space="preserve">Shuto uchi </t>
   </si>
   <si>
-    <t>Knife hand strike</t>
+    <t xml:space="preserve">Knife hand strike</t>
   </si>
   <si>
     <t xml:space="preserve">Shuto uke </t>
   </si>
   <si>
-    <t>Knife hand block</t>
+    <t xml:space="preserve">Knife hand block</t>
   </si>
   <si>
     <t xml:space="preserve">Sokuto </t>
   </si>
   <si>
-    <t>Foot edge (foot blade)</t>
+    <t xml:space="preserve">Foot edge (foot blade)</t>
   </si>
   <si>
     <t xml:space="preserve">Sonob </t>
   </si>
   <si>
-    <t>Switch</t>
+    <t xml:space="preserve">Switch</t>
   </si>
   <si>
     <t xml:space="preserve">Sonobade ippon toru </t>
   </si>
   <si>
-    <t>Change position in one action (change arms)</t>
+    <t xml:space="preserve">Change position in one action (change arms)</t>
   </si>
   <si>
     <t xml:space="preserve">Soto uke </t>
   </si>
   <si>
-    <t>Outer forearm block</t>
+    <t xml:space="preserve">Outer forearm block</t>
   </si>
   <si>
     <t xml:space="preserve">Soto mika zuki geri </t>
   </si>
   <si>
-    <t>Outwards crescent kick</t>
+    <t xml:space="preserve">Outwards crescent kick</t>
   </si>
   <si>
     <t xml:space="preserve">Stance </t>
   </si>
   <si>
-    <t>Dachi</t>
+    <t xml:space="preserve">Dachi</t>
   </si>
   <si>
     <t xml:space="preserve">Suri ashi </t>
   </si>
   <si>
-    <t>Creep forwards</t>
+    <t xml:space="preserve">Creep forwards</t>
   </si>
   <si>
     <t xml:space="preserve">Surikomi </t>
   </si>
   <si>
-    <t>Step up</t>
+    <t xml:space="preserve">Step up</t>
   </si>
   <si>
     <t xml:space="preserve">Suwatte </t>
   </si>
   <si>
-    <t>Sit down</t>
+    <t xml:space="preserve">Sit down</t>
   </si>
   <si>
     <t xml:space="preserve">Tachi </t>
   </si>
   <si>
-    <t>Stances</t>
+    <t xml:space="preserve">Stances</t>
   </si>
   <si>
     <t xml:space="preserve">Tatame </t>
   </si>
   <si>
-    <t>Mat</t>
+    <t xml:space="preserve">Mat</t>
   </si>
   <si>
     <t xml:space="preserve">Tai sabaki </t>
   </si>
   <si>
-    <t>Body shifting (to more advantageous position)</t>
+    <t xml:space="preserve">Body shifting (to more advantageous position)</t>
   </si>
   <si>
     <t xml:space="preserve">Tate ken </t>
   </si>
   <si>
-    <t>Vertical fist punch</t>
+    <t xml:space="preserve">Vertical fist punch</t>
   </si>
   <si>
     <t xml:space="preserve">Tatsumaki geri </t>
   </si>
   <si>
-    <t>Tornado kick</t>
+    <t xml:space="preserve">Tornado kick</t>
   </si>
   <si>
     <t xml:space="preserve">Teisho </t>
   </si>
   <si>
-    <t>Palm heel</t>
+    <t xml:space="preserve">Palm heel</t>
   </si>
   <si>
     <t xml:space="preserve">Teisho uchi </t>
   </si>
   <si>
-    <t>Paim heel strike</t>
+    <t xml:space="preserve">Paim heel strike</t>
   </si>
   <si>
     <t xml:space="preserve">Teisho uke </t>
   </si>
   <si>
-    <t>Palm heel block</t>
+    <t xml:space="preserve">Palm heel block</t>
   </si>
   <si>
     <t xml:space="preserve">Tettsui uchi </t>
   </si>
   <si>
-    <t>Bottom fist strike</t>
+    <t xml:space="preserve">Bottom fist strike</t>
   </si>
   <si>
     <t xml:space="preserve">Tettsui </t>
   </si>
   <si>
-    <t>Bottom fist</t>
+    <t xml:space="preserve">Bottom fist</t>
   </si>
   <si>
     <t xml:space="preserve">Tobi </t>
   </si>
   <si>
-    <t>Jumping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobikomi </t>
-  </si>
-  <si>
-    <t>Jumping snap punch (jab)</t>
+    <t xml:space="preserve">Jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobikomi z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumping snap punch (jab)</t>
   </si>
   <si>
     <t xml:space="preserve">Tobi mawashi geri </t>
   </si>
   <si>
-    <t>Jumping roundhouse kick</t>
+    <t xml:space="preserve">Jumping roundhouse kick</t>
   </si>
   <si>
     <t xml:space="preserve">Torre </t>
   </si>
   <si>
-    <t>Attacker</t>
+    <t xml:space="preserve">Attacker</t>
   </si>
   <si>
     <t xml:space="preserve">Torimasen </t>
   </si>
   <si>
-    <t>Unacceptable as a scoring technique</t>
+    <t xml:space="preserve">Unacceptable as a scoring technique</t>
   </si>
   <si>
     <t xml:space="preserve">Uchi </t>
   </si>
   <si>
-    <t>Inwards</t>
+    <t xml:space="preserve">Inwards</t>
   </si>
   <si>
     <t xml:space="preserve">Uchi mawashi geri </t>
   </si>
   <si>
-    <t>Inner roundhouse kick</t>
+    <t xml:space="preserve">Inner roundhouse kick</t>
   </si>
   <si>
     <t xml:space="preserve">Uchi uke </t>
   </si>
   <si>
-    <t>Inner forearm block</t>
+    <t xml:space="preserve">Inner forearm block</t>
   </si>
   <si>
     <t xml:space="preserve">Ude </t>
   </si>
   <si>
-    <t>Forearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ck kata </t>
-  </si>
-  <si>
-    <t>Movement</t>
+    <t xml:space="preserve">Forearm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lgok' kata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement</t>
   </si>
   <si>
     <t xml:space="preserve">Uke </t>
   </si>
   <si>
-    <t>Block, receiver or defender</t>
+    <t xml:space="preserve">Block, receiver or defender</t>
   </si>
   <si>
     <t xml:space="preserve">Ura/ushiro </t>
   </si>
   <si>
-    <t>Back</t>
+    <t xml:space="preserve">Back</t>
   </si>
   <si>
     <t xml:space="preserve">Uraken </t>
   </si>
   <si>
-    <t>Back fist</t>
+    <t xml:space="preserve">Back fist</t>
   </si>
   <si>
     <t xml:space="preserve">Ura </t>
   </si>
   <si>
-    <t>Inverted lupside down) punch</t>
+    <t xml:space="preserve">Inverted (upside down) punch</t>
   </si>
   <si>
     <t xml:space="preserve">Ushiro geri </t>
   </si>
   <si>
-    <t>Back kic</t>
+    <t xml:space="preserve">Back kic</t>
   </si>
   <si>
     <t xml:space="preserve">Ushiro kakato geri </t>
   </si>
   <si>
-    <t>Spinning axe kick</t>
+    <t xml:space="preserve">Spinning axe kick</t>
   </si>
   <si>
     <t xml:space="preserve">Ushiro kin geri </t>
   </si>
   <si>
-    <t>Sole of foot to groin of attacker at rear</t>
+    <t xml:space="preserve">Sole of foot to groin of attacker at rear</t>
   </si>
   <si>
     <t xml:space="preserve">Ushiro mawashi geri </t>
   </si>
   <si>
-    <t>Back roundhouse/spinning hook kick</t>
+    <t xml:space="preserve">Back roundhouse/spinning hook kick</t>
   </si>
   <si>
     <t xml:space="preserve">Waza </t>
   </si>
   <si>
-    <t>Technique</t>
+    <t xml:space="preserve">Technique</t>
   </si>
   <si>
     <t xml:space="preserve">Yame </t>
   </si>
   <si>
-    <t>Stop</t>
+    <t xml:space="preserve">Stop</t>
   </si>
   <si>
     <t xml:space="preserve">Yohi </t>
   </si>
   <si>
-    <t>Ready stance</t>
+    <t xml:space="preserve">Ready stance</t>
   </si>
   <si>
     <t xml:space="preserve">Yonhonme </t>
   </si>
   <si>
-    <t>Number four</t>
+    <t xml:space="preserve">Number four</t>
   </si>
   <si>
     <t xml:space="preserve">Yoko </t>
   </si>
   <si>
-    <t>Side</t>
+    <t xml:space="preserve">Side</t>
   </si>
   <si>
     <t xml:space="preserve">Yoko geri </t>
   </si>
   <si>
-    <t>Side kick/ front kick performed to the side</t>
+    <t xml:space="preserve">Side kick/ front kick performed to the side</t>
   </si>
   <si>
     <t xml:space="preserve">Yoku mite </t>
   </si>
   <si>
-    <t>Look around you/heads up staff</t>
+    <t xml:space="preserve">Look around you/heads up staff</t>
   </si>
   <si>
     <t xml:space="preserve">Yonhon nukite </t>
@@ -1216,26 +1208,27 @@
     <t xml:space="preserve">Zanshin </t>
   </si>
   <si>
-    <t>Fighting spirit and awareness</t>
+    <t xml:space="preserve">Fighting spirit and awareness</t>
   </si>
   <si>
     <t xml:space="preserve">Zen kutsu dachi </t>
   </si>
   <si>
-    <t>Forward stance</t>
-  </si>
-  <si>
-    <t>Zuki/</t>
-  </si>
-  <si>
-    <t>Punch</t>
+    <t xml:space="preserve">Forward stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuki/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1271,15 +1264,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1561,20 +1545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1590,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1654,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1670,7 +1648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1686,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1710,7 +1688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1718,7 +1696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1734,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1758,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1766,7 +1744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1774,7 +1752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1790,7 +1768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1798,7 +1776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1814,7 +1792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1822,7 +1800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1830,7 +1808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1838,7 +1816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1854,7 +1832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1862,7 +1840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1870,7 +1848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1878,7 +1856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1886,7 +1864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1894,7 +1872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1902,7 +1880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1910,7 +1888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1918,7 +1896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1926,7 +1904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -1934,7 +1912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1942,7 +1920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1950,7 +1928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -1958,7 +1936,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1966,7 +1944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -1974,7 +1952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -1982,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1990,7 +1968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -1998,7 +1976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -2006,7 +1984,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2014,7 +1992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -2022,7 +2000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -2030,7 +2008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2038,7 +2016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -2046,7 +2024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -2054,7 +2032,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -2062,7 +2040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -2070,7 +2048,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2078,7 +2056,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -2086,7 +2064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -2094,7 +2072,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2102,439 +2080,439 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
         <v>205</v>
       </c>
-      <c r="B105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>236</v>
       </c>
@@ -2542,7 +2520,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>238</v>
       </c>
@@ -2550,7 +2528,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>240</v>
       </c>
@@ -2558,7 +2536,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>242</v>
       </c>
@@ -2566,7 +2544,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>244</v>
       </c>
@@ -2574,7 +2552,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>246</v>
       </c>
@@ -2582,7 +2560,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>248</v>
       </c>
@@ -2590,7 +2568,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>250</v>
       </c>
@@ -2598,7 +2576,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -2606,7 +2584,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>254</v>
       </c>
@@ -2614,7 +2592,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -2622,7 +2600,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -2630,7 +2608,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -2638,7 +2616,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -2646,7 +2624,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -2654,7 +2632,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>266</v>
       </c>
@@ -2662,7 +2640,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>268</v>
       </c>
@@ -2670,7 +2648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -2678,7 +2656,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -2686,7 +2664,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>274</v>
       </c>
@@ -2694,7 +2672,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>276</v>
       </c>
@@ -2702,7 +2680,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>278</v>
       </c>
@@ -2710,7 +2688,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>280</v>
       </c>
@@ -2718,7 +2696,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>282</v>
       </c>
@@ -2726,7 +2704,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>284</v>
       </c>
@@ -2734,7 +2712,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>286</v>
       </c>
@@ -2742,7 +2720,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -2750,7 +2728,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" t="s">
         <v>290</v>
       </c>
@@ -2758,7 +2736,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -2766,7 +2744,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" t="s">
         <v>294</v>
       </c>
@@ -2774,7 +2752,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" t="s">
         <v>296</v>
       </c>
@@ -2782,7 +2760,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" t="s">
         <v>298</v>
       </c>
@@ -2790,7 +2768,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -2798,7 +2776,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -2806,7 +2784,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" t="s">
         <v>304</v>
       </c>
@@ -2814,7 +2792,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" t="s">
         <v>306</v>
       </c>
@@ -2822,7 +2800,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157" t="s">
         <v>308</v>
       </c>
@@ -2830,7 +2808,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" t="s">
         <v>310</v>
       </c>
@@ -2838,7 +2816,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" t="s">
         <v>312</v>
       </c>
@@ -2846,7 +2824,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" t="s">
         <v>314</v>
       </c>
@@ -2854,7 +2832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" t="s">
         <v>316</v>
       </c>
@@ -2862,7 +2840,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" t="s">
         <v>318</v>
       </c>
@@ -2870,7 +2848,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" t="s">
         <v>320</v>
       </c>
@@ -2878,7 +2856,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -2886,7 +2864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -2894,7 +2872,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -2902,7 +2880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -2910,7 +2888,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -2918,7 +2896,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -2926,7 +2904,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" t="s">
         <v>334</v>
       </c>
@@ -2934,7 +2912,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" t="s">
         <v>336</v>
       </c>
@@ -2942,7 +2920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" t="s">
         <v>338</v>
       </c>
@@ -2950,7 +2928,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" t="s">
         <v>340</v>
       </c>
@@ -2958,7 +2936,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" t="s">
         <v>342</v>
       </c>
@@ -2966,7 +2944,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -2974,7 +2952,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176" t="s">
         <v>346</v>
       </c>
@@ -2982,7 +2960,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177" t="s">
         <v>348</v>
       </c>
@@ -2990,7 +2968,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178" t="s">
         <v>350</v>
       </c>
@@ -2998,7 +2976,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179" t="s">
         <v>352</v>
       </c>
@@ -3006,7 +2984,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180" t="s">
         <v>354</v>
       </c>
@@ -3014,7 +2992,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" t="s">
         <v>356</v>
       </c>
@@ -3022,7 +3000,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -3030,7 +3008,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183" t="s">
         <v>360</v>
       </c>
@@ -3038,7 +3016,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="A184" t="s">
         <v>362</v>
       </c>
@@ -3046,7 +3024,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185" t="s">
         <v>364</v>
       </c>
@@ -3054,7 +3032,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186" t="s">
         <v>366</v>
       </c>
@@ -3062,7 +3040,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187" t="s">
         <v>368</v>
       </c>
@@ -3070,7 +3048,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188" t="s">
         <v>370</v>
       </c>
@@ -3078,7 +3056,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189" t="s">
         <v>372</v>
       </c>
@@ -3086,7 +3064,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="A190" t="s">
         <v>374</v>
       </c>
@@ -3094,7 +3072,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -3102,7 +3080,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="A192" t="s">
         <v>378</v>
       </c>
@@ -3110,7 +3088,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="A193" t="s">
         <v>380</v>
       </c>
@@ -3118,7 +3096,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="A194" t="s">
         <v>382</v>
       </c>
@@ -3126,7 +3104,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="A195" t="s">
         <v>384</v>
       </c>
@@ -3134,7 +3112,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="A196" t="s">
         <v>386</v>
       </c>
@@ -3142,7 +3120,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -3150,7 +3128,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="A198" t="s">
         <v>390</v>
       </c>
@@ -3158,7 +3136,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="A199" t="s">
         <v>392</v>
       </c>
@@ -3166,7 +3144,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="A200" t="s">
         <v>394</v>
       </c>
@@ -3174,7 +3152,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="A201" t="s">
         <v>396</v>
       </c>
@@ -3182,7 +3160,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="A202" t="s">
         <v>397</v>
       </c>
@@ -3190,7 +3168,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="A203" t="s">
         <v>399</v>
       </c>
@@ -3198,7 +3176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -3208,6 +3186,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>